--- a/techniqo/data_new_ticker/NIACL.xlsx
+++ b/techniqo/data_new_ticker/NIACL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G697"/>
+  <dimension ref="A1:G699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24781,6 +24781,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="C698" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="D698" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="E698" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="F698" t="n">
+        <v>169467</v>
+      </c>
+      <c r="G698" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="C699" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="D699" t="n">
+        <v>107.85</v>
+      </c>
+      <c r="E699" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="F699" t="n">
+        <v>367858</v>
+      </c>
+      <c r="G699" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/NIACL.xlsx
+++ b/techniqo/data_new_ticker/NIACL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G699"/>
+  <dimension ref="A1:G701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24831,6 +24831,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>108.85</v>
+      </c>
+      <c r="C700" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="D700" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="E700" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="F700" t="n">
+        <v>105386</v>
+      </c>
+      <c r="G700" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>108.95</v>
+      </c>
+      <c r="C701" t="n">
+        <v>115</v>
+      </c>
+      <c r="D701" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="E701" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F701" t="n">
+        <v>612743</v>
+      </c>
+      <c r="G701" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
